--- a/data/output/bases-separadas/-8.xlsx
+++ b/data/output/bases-separadas/-8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>18401340000190</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>02934334000168</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>7281568000177</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>03057383000122</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>6290968000186</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>03717114000145</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>66138694000136</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>07883221000102</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>14533001000106</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06974198000190</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>15090002000196</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>07857655000120</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>12812030000181</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>07249276000157</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>4873954000160</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>07076446000149</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>12831688000130</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01541838000155</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>9100631000157</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08692885000149</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>10873091000123</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>06087883000286</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>10643860000105</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>02777130000160</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>6029385000104</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>05056852000114</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>9500028000162</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>01399973000108</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>18274013000114</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>06993077000196</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>58673864000154</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>06133924000142</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>5613696000145</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>02028121000177</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>10950917000100</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>05257866000104</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>83514380000100</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>09471964000192</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>15549044000142</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>09039566000100</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>8016893000175</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08949785000236</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>2886295000170</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05390605000150</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>16561822000181</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0838464000171</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>92228048000170</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08600902000170</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>15153801000164</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0544473000150</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>21394088000143</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>01127366000199</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>19946727000194</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>05657147000172</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>19366919000121</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>06537599000183</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>5202262000152</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>02721652000140</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>94666153000116</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>09003066000100</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>16904479000120</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>03951921000128</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>8153200000196</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0965241000175</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>6179505000141</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0667476000180</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>3516450000120</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>08664829000109</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>11398185000150</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02130043000117</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>7005206000153</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>03526090000228</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>97537119000130</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>08306495000193</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>8323251000119</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>01818249000333</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>11968693000127</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>05480599000121</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>3644204000153</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>068322411000137</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>1656017000164</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>03359195000159</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>4534601000135</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>03801241000128</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>4567519000107</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>02367108000142</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>10652217000130</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>03095809000132</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>17330902000199</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05334536000167</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>10142069000103</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>05924054000167</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>18739168000189</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>02831488000124</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>10541486000129</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>08385196000191</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>10275087000163</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>09508579000172</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>18706162000105</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>04749583000109</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>26774257000194</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>05669138000100</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>7444594000179</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>09594827000145</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>6334560000169</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>04949633000100</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>3986615000127</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>08748555000128</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>4259049000114</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>05386044000387</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>17776957000127</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>03845152000183</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>19581253000124</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>08299803000109</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>10361097000111</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>09140093000124</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>19294144000126</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>09601070000170</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>18554709000102</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>06315338015140</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>15130898000190</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>07386677000159</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>27400928000110</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>05637287000189</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>15718526000189</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>05057493000110</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>21238680000156</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>02491558001114</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>8475922000167</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>03634791000108</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>14016550000103</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>04014852000199</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>10735014000107</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>07563781000171</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>536772003249</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>09438702000126</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>44466266000108</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>09022388000104</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>5929913000100</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>05897758000279</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>10929066000114</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>05783842000180</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>16700680000196</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>05156232000157</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>7976147002295</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>03093776000434</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>74270042000189</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>04420687000256</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>14556169000137</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0320527000527</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>9146749000116</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0325231000175</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>12150451000194</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>06333795000136</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>22084373000120</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>02491558001467</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>18428947000163</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>04534107000170</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>83305235000119</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>03788312000108</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>38824793000136</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>07059135000171</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>18133461000106</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>08189056000148</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>4705718000134</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>06227199000848</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>20344897000188</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>02906702000164</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>14370778000105</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>02675422000192</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>16252629000169</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>01031748000114</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>18670991000185</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>03093776000353</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>18645066000102</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>06001836000197</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>8895796000108</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>08056257000177</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>17651770000105</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>02308405000117</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>62934963000110</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0911432000154</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>4235922000139</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>07050745000104</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>17988954000157</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>03321111000198</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>10965693001697</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>02302100000106</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>17839260000158</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>09662485000153</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>10279931000124</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>08329509000194</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>6288119000198</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>08784757000125</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>8563964000150</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>08953263000127</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>6075430000159</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>07275016000156</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>21585777000135</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>04779792000103</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
